--- a/excel/files_13_data_visualization_solutions/exercise07/exercise07.xlsx
+++ b/excel/files_13_data_visualization_solutions/exercise07/exercise07.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis2/data_analysis/excel/files_13_data_visualization_solutions/exercise07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53369D0E-C037-4262-BF98-60E2E389D7FD}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B171B5-C423-433A-AE04-9500BDC85DA0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,11 @@
     <sheet name="boxplot" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">calories!$A:$A</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">calories!$E:$E</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">calories!$A:$A</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">calories!$E:$E</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">calories!$A:$A</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">calories!$E:$E</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">calories!$A:$A</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">calories!$E:$E</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">calories!$A:$A</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">calories!$E:$E</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">calories!$A$2:$A$2226</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">calories!$A:$A</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">calories!$B$2:$B$2226</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">calories!$E$2:$E$2226</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">calories!$E:$E</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">calories!$A$1:$E$2226</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -6242,7 +6237,7 @@
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7295,7 +7290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FE7074-0299-4480-9063-1596AC386A3B}">
   <dimension ref="A1:E2226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2209" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -45162,8 +45157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
